--- a/Absen/2. November 2025 - TARBIYAH & DAKWAH DT-R.xlsx
+++ b/Absen/2. November 2025 - TARBIYAH & DAKWAH DT-R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Pengajian\Absen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF9A92B-B29D-4068-B9F4-54E7C57466AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE07055E-FE9D-4CD8-A43B-F1CAB7466044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2E39FF77-035B-4F7C-ACEB-1A442C392774}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t>NAMA</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>Ujian di kampus</t>
+  </si>
+  <si>
+    <t>Acara di Loa Duri</t>
   </si>
 </sst>
 </file>
@@ -565,77 +568,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -827,22 +810,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50CAA0CF-06E4-471A-8CAA-E0E3D0553E02}" name="Table1" displayName="Table1" ref="M10:N21" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50CAA0CF-06E4-471A-8CAA-E0E3D0553E02}" name="Table1" displayName="Table1" ref="M10:N21" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="M10:N21" xr:uid="{50CAA0CF-06E4-471A-8CAA-E0E3D0553E02}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7BD02032-E365-49A8-ADAB-44D6FB3AFCD1}" name="Nama" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{41948D79-27FC-4502-92CC-571E48B0487D}" name="Nomor WA" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{7BD02032-E365-49A8-ADAB-44D6FB3AFCD1}" name="Nama" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{41948D79-27FC-4502-92CC-571E48B0487D}" name="Nomor WA" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{11B7F338-C63F-40E2-80FF-0AC823156E9D}" name="Table2" displayName="Table2" ref="P26:Q27" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{11B7F338-C63F-40E2-80FF-0AC823156E9D}" name="Table2" displayName="Table2" ref="P26:Q27" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="P26:Q27" xr:uid="{11B7F338-C63F-40E2-80FF-0AC823156E9D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{84005749-F834-45CA-94CD-2EDD5B1E1F63}" name="Teks WA 1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{29720DB4-DB3A-41BE-9B35-9301A3705ADA}" name="Teks WA 2" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{84005749-F834-45CA-94CD-2EDD5B1E1F63}" name="Teks WA 1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{29720DB4-DB3A-41BE-9B35-9301A3705ADA}" name="Teks WA 2" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1151,7 +1134,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1173,38 +1156,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
@@ -1226,8 +1209,8 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1255,44 +1238,44 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:16" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="44" t="s">
+      <c r="B8" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="42" t="s">
+      <c r="D8" s="47"/>
+      <c r="E8" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="42" t="s">
+      <c r="G8" s="47"/>
+      <c r="H8" s="44" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="43"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="22" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="43"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -1317,10 +1300,10 @@
         <v>1</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="40"/>
+      <c r="K10" s="42"/>
       <c r="L10" s="3"/>
       <c r="M10" s="1" t="s">
         <v>54</v>
@@ -1532,7 +1515,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="F16" s="18" t="b">
         <v>1</v>
       </c>
@@ -1549,7 +1534,7 @@
       </c>
       <c r="P16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>https://wa.me/6285255990709?text=Assalamualaikum%20Mas%20Firman%0A%0ASaya%20mau%20minta%20keterangannya%20untuk%20ketidakhadiran%20pengajian%20tanggal%2014%20November%202025%0A%0ATerima%20kasih%E2%80%A6</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1722,7 +1707,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="20" t="s">
         <v>5</v>
       </c>
@@ -1746,7 +1731,7 @@
       <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="21" t="s">
         <v>25</v>
       </c>
@@ -1770,10 +1755,10 @@
       <c r="H23" s="19"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="52" t="s">
+      <c r="F25" s="38" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1809,22 +1794,12 @@
     <mergeCell ref="F5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:D21">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F17 F21">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10:G10 F11:F13 G11:G21">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18:F20">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="F10:G21">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1860,22 +1835,22 @@
   <sheetData>
     <row r="1" spans="1:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
@@ -1915,30 +1890,30 @@
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:12" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="49" t="s">
+      <c r="B8" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="42" t="s">
+      <c r="D8" s="52"/>
+      <c r="E8" s="44" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="26">
         <v>1</v>
       </c>
       <c r="D9" s="26">
         <v>2</v>
       </c>
-      <c r="E9" s="48"/>
+      <c r="E9" s="50"/>
     </row>
     <row r="10" spans="1:12" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
@@ -2176,7 +2151,7 @@
     <mergeCell ref="E8:E9"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:D21">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Absen/2. November 2025 - TARBIYAH & DAKWAH DT-R.xlsx
+++ b/Absen/2. November 2025 - TARBIYAH & DAKWAH DT-R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Pengajian\Absen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE07055E-FE9D-4CD8-A43B-F1CAB7466044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD692250-60E0-465B-B99B-755B143C2436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2E39FF77-035B-4F7C-ACEB-1A442C392774}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
   <si>
     <t>NAMA</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>Acara di Loa Duri</t>
+  </si>
+  <si>
+    <t>Anak sakit</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1137,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1686,7 +1689,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="F21" s="18" t="b">
         <v>1</v>
       </c>
@@ -1703,7 +1708,7 @@
       </c>
       <c r="P21" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>https://wa.me/6282229432434?text=Assalamualaikum%20Mas%20Wahap%0A%0ASaya%20mau%20minta%20keterangannya%20untuk%20ketidakhadiran%20pengajian%20tanggal%2014%20November%202025%0A%0ATerima%20kasih%E2%80%A6</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">

--- a/Absen/2. November 2025 - TARBIYAH & DAKWAH DT-R.xlsx
+++ b/Absen/2. November 2025 - TARBIYAH & DAKWAH DT-R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Pengajian\Absen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD692250-60E0-465B-B99B-755B143C2436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9E453B-3267-4E97-B188-7022DD31C26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2E39FF77-035B-4F7C-ACEB-1A442C392774}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t>NAMA</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>Anak sakit</t>
+  </si>
+  <si>
+    <t>Dinas malam</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1140,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1588,7 +1591,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="F18" s="18" t="b">
         <v>1</v>
       </c>
@@ -1605,7 +1610,7 @@
       </c>
       <c r="P18" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>https://wa.me/6282354144365?text=Assalamualaikum%20Mas%20Salman%0A%0ASaya%20mau%20minta%20keterangannya%20untuk%20ketidakhadiran%20pengajian%20tanggal%2014%20November%202025%0A%0ATerima%20kasih%E2%80%A6</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1799,12 +1804,12 @@
     <mergeCell ref="F5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:D21">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:G21">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1825,7 +1830,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1928,7 +1933,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="28" t="b">
         <v>0</v>
@@ -1951,7 +1956,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="28" t="b">
         <v>0</v>
@@ -1974,7 +1979,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="28" t="b">
         <v>0</v>
@@ -2094,7 +2099,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="28" t="b">
         <v>0</v>
@@ -2123,7 +2128,7 @@
       </c>
       <c r="C22" s="20">
         <f>SUM(COUNTIF(C10:C21,TRUE))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D22" s="20">
         <f>SUM(COUNTIF(D10:D21,TRUE))</f>
@@ -2138,7 +2143,7 @@
       </c>
       <c r="C23" s="34">
         <f>C22/$A$21*100</f>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="D23" s="34">
         <f>D22/$A$21*100</f>
@@ -2156,7 +2161,7 @@
     <mergeCell ref="E8:E9"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:D21">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Absen/2. November 2025 - TARBIYAH & DAKWAH DT-R.xlsx
+++ b/Absen/2. November 2025 - TARBIYAH & DAKWAH DT-R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Pengajian\Absen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9E453B-3267-4E97-B188-7022DD31C26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD48F92-CB19-467B-A660-157AC7E1A3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2E39FF77-035B-4F7C-ACEB-1A442C392774}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
   <si>
     <t>NAMA</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>Dinas malam</t>
+  </si>
+  <si>
+    <t>Ada kerjaan mendadak</t>
   </si>
 </sst>
 </file>
@@ -624,7 +627,117 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -816,22 +929,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50CAA0CF-06E4-471A-8CAA-E0E3D0553E02}" name="Table1" displayName="Table1" ref="M10:N21" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50CAA0CF-06E4-471A-8CAA-E0E3D0553E02}" name="Table1" displayName="Table1" ref="M10:N21" totalsRowShown="0" headerRowDxfId="20">
   <autoFilter ref="M10:N21" xr:uid="{50CAA0CF-06E4-471A-8CAA-E0E3D0553E02}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7BD02032-E365-49A8-ADAB-44D6FB3AFCD1}" name="Nama" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{41948D79-27FC-4502-92CC-571E48B0487D}" name="Nomor WA" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{7BD02032-E365-49A8-ADAB-44D6FB3AFCD1}" name="Nama" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{41948D79-27FC-4502-92CC-571E48B0487D}" name="Nomor WA" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{11B7F338-C63F-40E2-80FF-0AC823156E9D}" name="Table2" displayName="Table2" ref="P26:Q27" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{11B7F338-C63F-40E2-80FF-0AC823156E9D}" name="Table2" displayName="Table2" ref="P26:Q27" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="P26:Q27" xr:uid="{11B7F338-C63F-40E2-80FF-0AC823156E9D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{84005749-F834-45CA-94CD-2EDD5B1E1F63}" name="Teks WA 1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{29720DB4-DB3A-41BE-9B35-9301A3705ADA}" name="Teks WA 2" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{84005749-F834-45CA-94CD-2EDD5B1E1F63}" name="Teks WA 1" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{29720DB4-DB3A-41BE-9B35-9301A3705ADA}" name="Teks WA 2" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1140,7 +1253,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1150,7 +1263,7 @@
     <col min="3" max="4" width="7.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" style="13" customWidth="1"/>
     <col min="6" max="7" width="7.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" style="1"/>
     <col min="10" max="10" width="6" style="1" customWidth="1"/>
     <col min="11" max="12" width="9.85546875" style="1" customWidth="1"/>
@@ -1329,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="18" t="b">
-        <f t="shared" ref="D11:D21" si="0">C11</f>
+        <f t="shared" ref="D11:F21" si="0">C11</f>
         <v>1</v>
       </c>
       <c r="E11" s="10"/>
@@ -1337,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="18" t="b">
-        <f t="shared" ref="G11:G21" si="1">F11</f>
+        <f t="shared" ref="G11:G12" si="1">F11</f>
         <v>1</v>
       </c>
       <c r="H11" s="10"/>
@@ -1421,8 +1534,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="18" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="11"/>
       <c r="L13" s="3"/>
@@ -1456,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="18" t="b">
-        <f t="shared" si="1"/>
+        <f>F14</f>
         <v>1</v>
       </c>
       <c r="H14" s="10"/>
@@ -1489,11 +1601,10 @@
         <v>60</v>
       </c>
       <c r="F15" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="18" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="10"/>
       <c r="M15" s="1" t="s">
@@ -1504,7 +1615,7 @@
       </c>
       <c r="P15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>https://wa.me/6281347471525?text=Assalamualaikum%20Pak%20Mamat%0A%0ASaya%20mau%20minta%20keterangannya%20untuk%20ketidakhadiran%20pengajian%20tanggal%2021%20November%202025%0A%0ATerima%20kasih%E2%80%A6</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1528,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="18" t="b">
-        <f t="shared" si="1"/>
+        <f>F16</f>
         <v>1</v>
       </c>
       <c r="H16" s="11"/>
@@ -1559,11 +1670,10 @@
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="18" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="10"/>
       <c r="M17" s="1" t="s">
@@ -1574,7 +1684,7 @@
       </c>
       <c r="P17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>https://wa.me/6282124386879?text=Assalamualaikum%20Mas%20Suhud%0A%0ASaya%20mau%20minta%20keterangannya%20untuk%20ketidakhadiran%20pengajian%20tanggal%2014%20November%202025%0A%0ATerima%20kasih%E2%80%A6</v>
+        <v>https://wa.me/6282124386879?text=Assalamualaikum%20Mas%20Suhud%0A%0ASaya%20mau%20minta%20keterangannya%20untuk%20ketidakhadiran%20pengajian%20tanggal%2014%20November%202025%20dan%20tanggal%2021%20November%202025%0A%0ATerima%20kasih%E2%80%A6</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -1595,11 +1705,10 @@
         <v>67</v>
       </c>
       <c r="F18" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="18" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="10"/>
       <c r="M18" s="1" t="s">
@@ -1610,7 +1719,7 @@
       </c>
       <c r="P18" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>https://wa.me/6282354144365?text=Assalamualaikum%20Mas%20Salman%0A%0ASaya%20mau%20minta%20keterangannya%20untuk%20ketidakhadiran%20pengajian%20tanggal%2021%20November%202025%0A%0ATerima%20kasih%E2%80%A6</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1632,7 +1741,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="18" t="b">
-        <f t="shared" si="1"/>
+        <f>F19</f>
         <v>1</v>
       </c>
       <c r="H19" s="11"/>
@@ -1662,13 +1771,14 @@
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="18" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H20" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="M20" s="1" t="s">
         <v>52</v>
       </c>
@@ -1701,8 +1811,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="18" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="10"/>
       <c r="M21" s="1" t="s">
@@ -1732,11 +1841,11 @@
       <c r="E22" s="19"/>
       <c r="F22" s="20">
         <f t="shared" ref="F22:G22" si="3">SUM(COUNTIF(F10:F21,TRUE))</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G22" s="20">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H22" s="19"/>
     </row>
@@ -1756,11 +1865,11 @@
       <c r="E23" s="19"/>
       <c r="F23" s="33">
         <f>F22/$A$21*100</f>
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="G23" s="33">
         <f>G22/$A$21*100</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H23" s="19"/>
     </row>
@@ -1804,11 +1913,51 @@
     <mergeCell ref="F5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:D21">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:G21">
+  <conditionalFormatting sqref="F20:G20 F15:G15 F17:G18 G10:G14 G16 G19 G21">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -2161,7 +2310,7 @@
     <mergeCell ref="E8:E9"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:D21">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Absen/2. November 2025 - TARBIYAH & DAKWAH DT-R.xlsx
+++ b/Absen/2. November 2025 - TARBIYAH & DAKWAH DT-R.xlsx
@@ -5,28 +5,39 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Pengajian\Absen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ASATIDZ\Zen\pengajian-baru\Absen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD48F92-CB19-467B-A660-157AC7E1A3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A809FB15-5B3F-4EB0-951F-7731170B3E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2E39FF77-035B-4F7C-ACEB-1A442C392774}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E39FF77-035B-4F7C-ACEB-1A442C392774}"/>
   </bookViews>
   <sheets>
     <sheet name="TARBIYAH" sheetId="2" r:id="rId1"/>
     <sheet name="DAKWAH" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
   <si>
     <t>NAMA</t>
   </si>
@@ -237,6 +248,12 @@
   </si>
   <si>
     <t>Ada kerjaan mendadak</t>
+  </si>
+  <si>
+    <t>Masih di kantor</t>
+  </si>
+  <si>
+    <t>Dinas</t>
   </si>
 </sst>
 </file>
@@ -627,117 +644,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -929,31 +836,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50CAA0CF-06E4-471A-8CAA-E0E3D0553E02}" name="Table1" displayName="Table1" ref="M10:N21" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50CAA0CF-06E4-471A-8CAA-E0E3D0553E02}" name="Table1" displayName="Table1" ref="M10:N21" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="M10:N21" xr:uid="{50CAA0CF-06E4-471A-8CAA-E0E3D0553E02}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7BD02032-E365-49A8-ADAB-44D6FB3AFCD1}" name="Nama" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{41948D79-27FC-4502-92CC-571E48B0487D}" name="Nomor WA" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{7BD02032-E365-49A8-ADAB-44D6FB3AFCD1}" name="Nama" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{41948D79-27FC-4502-92CC-571E48B0487D}" name="Nomor WA" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{11B7F338-C63F-40E2-80FF-0AC823156E9D}" name="Table2" displayName="Table2" ref="P26:Q27" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{11B7F338-C63F-40E2-80FF-0AC823156E9D}" name="Table2" displayName="Table2" ref="P26:Q27" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="P26:Q27" xr:uid="{11B7F338-C63F-40E2-80FF-0AC823156E9D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{84005749-F834-45CA-94CD-2EDD5B1E1F63}" name="Teks WA 1" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{29720DB4-DB3A-41BE-9B35-9301A3705ADA}" name="Teks WA 2" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{84005749-F834-45CA-94CD-2EDD5B1E1F63}" name="Teks WA 1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{29720DB4-DB3A-41BE-9B35-9301A3705ADA}" name="Teks WA 2" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -991,7 +898,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1097,7 +1004,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1239,7 +1146,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1253,7 +1160,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1442,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="18" t="b">
-        <f t="shared" ref="D11:F21" si="0">C11</f>
+        <f t="shared" ref="D11:D21" si="0">C11</f>
         <v>1</v>
       </c>
       <c r="E11" s="10"/>
@@ -1606,7 +1513,9 @@
       <c r="G15" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="H15" s="10"/>
+      <c r="H15" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="M15" s="1" t="s">
         <v>47</v>
       </c>
@@ -1615,7 +1524,7 @@
       </c>
       <c r="P15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>https://wa.me/6281347471525?text=Assalamualaikum%20Pak%20Mamat%0A%0ASaya%20mau%20minta%20keterangannya%20untuk%20ketidakhadiran%20pengajian%20tanggal%2021%20November%202025%0A%0ATerima%20kasih%E2%80%A6</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1710,7 +1619,9 @@
       <c r="G18" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="H18" s="10"/>
+      <c r="H18" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="M18" s="1" t="s">
         <v>50</v>
       </c>
@@ -1719,7 +1630,7 @@
       </c>
       <c r="P18" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>https://wa.me/6282354144365?text=Assalamualaikum%20Mas%20Salman%0A%0ASaya%20mau%20minta%20keterangannya%20untuk%20ketidakhadiran%20pengajian%20tanggal%2021%20November%202025%0A%0ATerima%20kasih%E2%80%A6</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1913,52 +1824,12 @@
     <mergeCell ref="F5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:D21">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:G20 F15:G15 F17:G18 G10:G14 G16 G19 G21">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="F10:G21">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2310,7 +2181,7 @@
     <mergeCell ref="E8:E9"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:D21">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
